--- a/biology/Biologie cellulaire et moléculaire/Antonio_Michele_Stanca/Antonio_Michele_Stanca.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Antonio_Michele_Stanca/Antonio_Michele_Stanca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Michele Stanca (né le 22 mai 1942 à Soleto et mort le 19 mars 2020 à Fidenza) est un généticien italien.
 Il naît à Soleto, en Italie. Il est diplômé de l'Université de Bari, avec spécialisation en sciences agricoles. Il est professeur à l'Université de Milan, à l'Université catholique du Sacré-Cœur de Plaisance, à l'Institut national agronomique de Tunisie (INAT) de Tunis et à l'Université de Modène et de Reggio d'Émilie .
-Lors de la pandémie de Covid-19, il meurt de COVID-19 le 19 mars 2020 à Fidenza, à l'âge de 77 ans[1].
+Lors de la pandémie de Covid-19, il meurt de COVID-19 le 19 mars 2020 à Fidenza, à l'âge de 77 ans.
 </t>
         </is>
       </c>
